--- a/TestData/DataDriven.xlsx
+++ b/TestData/DataDriven.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SwagLabs_CaseStudy\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2593145F-E51B-4EEE-A0D8-0A20D11C1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7266E53-F968-42A3-B0AB-12C2F376ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{63AEDC20-F9DC-46EF-A1BD-EE69831EAB61}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>user_name</t>
   </si>
@@ -43,22 +43,10 @@
     <t>problem_user</t>
   </si>
   <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
     <t>secret_sauce</t>
   </si>
   <si>
     <t>secret_saucew</t>
-  </si>
-  <si>
-    <t>standard_users</t>
-  </si>
-  <si>
-    <t>secret_sauces</t>
-  </si>
-  <si>
-    <t>gaura_nty</t>
   </si>
   <si>
     <t>Result</t>
@@ -99,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -173,19 +161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -235,21 +210,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -258,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,25 +235,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A874C2-7CA2-4ADE-981F-B8824B1BE950}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,10 +604,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,50 +615,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/DataDriven.xlsx
+++ b/TestData/DataDriven.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SwagLabs_CaseStudy\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7266E53-F968-42A3-B0AB-12C2F376ABEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53965DFE-2958-4E43-8F21-669F0856AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{63AEDC20-F9DC-46EF-A1BD-EE69831EAB61}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginDataSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Product" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -172,19 +171,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -218,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -244,10 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -567,7 +550,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +589,7 @@
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -624,16 +607,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16E7885-1BE1-49DB-8851-8A415FD15610}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>